--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="360">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -260,6 +260,10 @@
 - isBrand is a required filed. 
 - form is required and will follow norwegian codingsystem
 - the profile is extended with no-basis-Prescriptiongroup</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -1260,10 +1264,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1702,13 +1706,13 @@
         <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>74</v>
@@ -1719,10 +1723,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1733,7 +1737,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1742,19 +1746,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1804,13 +1808,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1833,10 +1837,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1847,7 +1851,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1856,16 +1860,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1916,19 +1920,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1945,10 +1949,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1959,28 +1963,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2030,19 +2034,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2059,10 +2063,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2073,7 +2077,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2085,16 +2089,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2120,13 +2124,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2144,19 +2148,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2173,21 +2177,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2199,16 +2203,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2258,25 +2262,25 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2287,14 +2291,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2313,16 +2317,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2372,7 +2376,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2390,7 +2394,7 @@
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2401,10 +2405,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2427,13 +2431,13 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2472,17 +2476,17 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2494,7 +2498,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2511,13 +2515,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>74</v>
@@ -2539,13 +2543,13 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2596,7 +2600,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2605,10 +2609,10 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2625,14 +2629,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2645,25 +2649,25 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2712,7 +2716,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2724,13 +2728,13 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2741,10 +2745,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2764,19 +2768,19 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2826,7 +2830,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2838,16 +2842,16 @@
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>74</v>
@@ -2855,10 +2859,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2866,10 +2870,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2878,19 +2882,19 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2916,13 +2920,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -2940,39 +2944,39 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2983,7 +2987,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2995,13 +2999,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3052,13 +3056,13 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
@@ -3070,7 +3074,7 @@
         <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>74</v>
@@ -3081,14 +3085,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3107,16 +3111,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3154,19 +3158,19 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3178,13 +3182,13 @@
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3195,10 +3199,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3206,7 +3210,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3218,22 +3222,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3270,17 +3274,17 @@
         <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3292,40 +3296,40 @@
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3334,22 +3338,22 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3398,7 +3402,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3410,27 +3414,27 @@
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3441,7 +3445,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3453,13 +3457,13 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3510,13 +3514,13 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
@@ -3528,7 +3532,7 @@
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3539,14 +3543,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3565,16 +3569,16 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3612,19 +3616,19 @@
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3636,13 +3640,13 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -3653,10 +3657,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3664,10 +3668,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3676,29 +3680,29 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>74</v>
@@ -3740,39 +3744,39 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3783,7 +3787,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3792,19 +3796,19 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3854,39 +3858,39 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3897,7 +3901,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -3906,20 +3910,20 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -3968,39 +3972,39 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4008,10 +4012,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4020,20 +4024,20 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4082,39 +4086,39 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4125,7 +4129,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4134,22 +4138,22 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4198,42 +4202,42 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>74</v>
@@ -4243,7 +4247,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4252,22 +4256,22 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4316,7 +4320,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4328,27 +4332,27 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4359,7 +4363,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4371,13 +4375,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4428,13 +4432,13 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
@@ -4446,7 +4450,7 @@
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4457,14 +4461,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4483,16 +4487,16 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4530,19 +4534,19 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4554,13 +4558,13 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4571,10 +4575,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4582,10 +4586,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4594,29 +4598,29 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>74</v>
@@ -4658,39 +4662,39 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4701,7 +4705,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4710,19 +4714,19 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4772,39 +4776,39 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4812,10 +4816,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4824,20 +4828,20 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -4886,39 +4890,39 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4926,10 +4930,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4938,20 +4942,20 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5000,39 +5004,39 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5043,7 +5047,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5052,22 +5056,22 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5116,39 +5120,39 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5159,7 +5163,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5168,22 +5172,22 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5232,39 +5236,39 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5275,28 +5279,28 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5322,13 +5326,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5346,25 +5350,25 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5375,10 +5379,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5389,7 +5393,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5398,16 +5402,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5458,39 +5462,39 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5498,10 +5502,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5513,16 +5517,16 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5548,13 +5552,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5572,39 +5576,39 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5615,7 +5619,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5627,13 +5631,13 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5684,13 +5688,13 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
@@ -5702,7 +5706,7 @@
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5713,14 +5717,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5739,16 +5743,16 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5786,19 +5790,19 @@
         <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5810,13 +5814,13 @@
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -5827,10 +5831,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5838,7 +5842,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>76</v>
@@ -5850,22 +5854,22 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5902,17 +5906,17 @@
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5924,30 +5928,30 @@
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="C40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>74</v>
@@ -5957,7 +5961,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -5966,22 +5970,22 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6030,7 +6034,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6042,27 +6046,27 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6073,7 +6077,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6085,13 +6089,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6142,13 +6146,13 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
@@ -6160,7 +6164,7 @@
         <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6171,14 +6175,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6197,16 +6201,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6244,19 +6248,19 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6268,13 +6272,13 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6285,10 +6289,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6296,10 +6300,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6308,29 +6312,29 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>74</v>
@@ -6372,39 +6376,39 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6415,7 +6419,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6424,19 +6428,19 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6486,39 +6490,39 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6526,10 +6530,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6538,20 +6542,20 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6600,39 +6604,39 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6640,10 +6644,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6652,20 +6656,20 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6714,39 +6718,39 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6757,7 +6761,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6766,22 +6770,22 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6830,39 +6834,39 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6873,7 +6877,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -6882,22 +6886,22 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -6946,39 +6950,39 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6989,7 +6993,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -6998,16 +7002,16 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7058,25 +7062,25 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7087,10 +7091,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7113,16 +7117,16 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7172,7 +7176,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7184,13 +7188,13 @@
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7201,10 +7205,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7215,7 +7219,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7227,13 +7231,13 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7284,13 +7288,13 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
@@ -7302,7 +7306,7 @@
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7313,14 +7317,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7339,16 +7343,16 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7398,7 +7402,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7410,13 +7414,13 @@
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7427,14 +7431,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7447,25 +7451,25 @@
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7514,7 +7518,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7526,13 +7530,13 @@
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7543,10 +7547,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7554,10 +7558,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7569,17 +7573,17 @@
         <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7628,39 +7632,39 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7671,7 +7675,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7683,17 +7687,17 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7742,25 +7746,25 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -7771,10 +7775,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7785,7 +7789,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7797,13 +7801,13 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7854,39 +7858,39 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7897,7 +7901,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -7909,13 +7913,13 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7966,25 +7970,25 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
@@ -7995,10 +7999,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8009,7 +8013,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8021,13 +8025,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8078,13 +8082,13 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
@@ -8096,7 +8100,7 @@
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8107,14 +8111,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8133,16 +8137,16 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8192,7 +8196,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8204,13 +8208,13 @@
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8221,14 +8225,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8241,25 +8245,25 @@
         <v>74</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8308,7 +8312,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8320,13 +8324,13 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8337,10 +8341,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8351,7 +8355,7 @@
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8363,13 +8367,13 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8420,39 +8424,39 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8463,7 +8467,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8475,13 +8479,13 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8532,31 +8536,31 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -536,7 +536,7 @@
     <t>A coded concept that defines the type of a medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -862,7 +862,7 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -899,7 +899,7 @@
     <t>A coded concept defining the form of a medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-form-codes|4.0.1</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -1044,7 +1044,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Substance|Medication)</t>
+Reference(Substance|4.0.1|Medication|4.0.1)</t>
   </si>
   <si>
     <t>The actual ingredient or content</t>
@@ -1446,17 +1446,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.1171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.35546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.27734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1465,25 +1465,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.0390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.22265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="167.640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="84.81640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Medication.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Medication</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-Medication</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -455,7 +455,7 @@
     <t>prescriptiongroup</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-prescriptiongroup}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/StructureDefinition/no-basis-prescriptiongroup}
 </t>
   </si>
   <si>
@@ -1456,7 +1456,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.0703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
